--- a/biology/Zoologie/Holothuria_(Platyperona)/Holothuria_(Platyperona).xlsx
+++ b/biology/Zoologie/Holothuria_(Platyperona)/Holothuria_(Platyperona).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Holothuria (Platyperona) est un sous-genre de concombres de mer de la famille des Holothuriidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des holothuries tropicales ou subtropicales, présentes dans les trois principaux bassins océaniques. La plupart des espèces sont de taille moyenne (20 cm maximum pour H. sanctori), hérissées de petites papilles coniques plus ou moins prononcées et irrégulièrement éparpillées sur le bivium, et formant des colliers de papilles autour des 18 à 20 tentacules buccaux. Les podia sont densément répartis sur le trivium aplati (ne formant des rangées que chez les petits individus), et la paroi du corps est douce et peu épaisse. La silhouette est légèrement arquée dorsalement[2]. Elles sont pourvues de tubes de Cuvier. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des holothuries tropicales ou subtropicales, présentes dans les trois principaux bassins océaniques. La plupart des espèces sont de taille moyenne (20 cm maximum pour H. sanctori), hérissées de petites papilles coniques plus ou moins prononcées et irrégulièrement éparpillées sur le bivium, et formant des colliers de papilles autour des 18 à 20 tentacules buccaux. Les podia sont densément répartis sur le trivium aplati (ne formant des rangées que chez les petits individus), et la paroi du corps est douce et peu épaisse. La silhouette est légèrement arquée dorsalement. Elles sont pourvues de tubes de Cuvier. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Historiquement, ce groupe fut proposé par Rowe en tant que genre à part entière, mais les données scientifiques récentes l'ont placé au rang de sous-genre du vaste genre Holothuria[1]. 
-Selon World Register of Marine Species                               (24 octobre 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historiquement, ce groupe fut proposé par Rowe en tant que genre à part entière, mais les données scientifiques récentes l'ont placé au rang de sous-genre du vaste genre Holothuria. 
+Selon World Register of Marine Species                               (24 octobre 2016) :
 Holothuria (Platyperona) crosnieri Cherbonnier, 1988 -- Madagascar et région
 Holothuria (Platyperona) difficilis Semper, 1868 -- Indo-Pacifique tropical de la Mer Rouge au Mexique (espèce-type)
 Holothuria (Platyperona) excellens (Ludwig, 1875) -- Madagascar et région
